--- a/output/intraday/riepilogo_intraday_2025-10-14.xlsx
+++ b/output/intraday/riepilogo_intraday_2025-10-14.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AR7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,97 +505,97 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>TimeLow</t>
+          <t>OpenPM</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>OpenPM</t>
+          <t>HighPM</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>HighPM</t>
+          <t>LowPM</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>LowPM</t>
+          <t>ClosePM</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>ClosePM</t>
+          <t>VolumePM</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>VolumePM</t>
+          <t>TimePMH</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>TimePMH</t>
+          <t>High_1m</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>High_1m</t>
+          <t>Low_1m</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Low_1m</t>
+          <t>Volume_1m</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Volume_1m</t>
+          <t>High_5m</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>High_5m</t>
+          <t>Low_5m</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Low_5m</t>
+          <t>Volume_5m</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Volume_5m</t>
+          <t>High_30m</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>High_30m</t>
+          <t>Low_30m</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Low_30m</t>
+          <t>Volume_30m</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Volume_30m</t>
+          <t>High_60m</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>High_60m</t>
+          <t>Low_60m</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Low_60m</t>
+          <t>Volume_60m</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Volume_60m</t>
+          <t>Close_1030</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
@@ -615,17 +615,47 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
+          <t>Close_1100</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>High_120m</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Low_120m</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_120m</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Close_1200</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
           <t>High_240m</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Low_240m</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Volume_240m</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Close_1400</t>
         </is>
       </c>
     </row>
@@ -677,66 +707,64 @@
           <t>2025-10-13 09:32:00</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2025-10-13 09:32:00</t>
-        </is>
+      <c r="N2" t="n">
+        <v>4.98</v>
       </c>
       <c r="O2" t="n">
-        <v>4.98</v>
+        <v>11.5</v>
       </c>
       <c r="P2" t="n">
-        <v>11.5</v>
+        <v>4.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.96</v>
+        <v>6.48</v>
       </c>
       <c r="R2" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="S2" t="n">
         <v>10564628</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>2025-10-13 07:38:00</t>
         </is>
       </c>
+      <c r="T2" t="n">
+        <v>6.49</v>
+      </c>
       <c r="U2" t="n">
-        <v>6.49</v>
+        <v>6.33</v>
       </c>
       <c r="V2" t="n">
-        <v>6.33</v>
+        <v>31070</v>
       </c>
       <c r="W2" t="n">
-        <v>31070</v>
+        <v>6.65</v>
       </c>
       <c r="X2" t="n">
-        <v>6.65</v>
+        <v>5.98</v>
       </c>
       <c r="Y2" t="n">
+        <v>336727</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA2" t="n">
         <v>5.98</v>
       </c>
-      <c r="Z2" t="n">
-        <v>336727</v>
-      </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
+        <v>2154960</v>
+      </c>
+      <c r="AC2" t="n">
         <v>7.6</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
         <v>5.98</v>
       </c>
-      <c r="AC2" t="n">
-        <v>2154960</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AE2" t="n">
-        <v>5.98</v>
+        <v>3087988</v>
       </c>
       <c r="AF2" t="n">
-        <v>3087988</v>
+        <v>6.98</v>
       </c>
       <c r="AG2" t="n">
         <v>7.6</v>
@@ -748,13 +776,31 @@
         <v>3428989</v>
       </c>
       <c r="AJ2" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>4096387</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="AO2" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AP2" t="n">
         <v>5.98</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AQ2" t="n">
         <v>5413696</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>7.02</v>
       </c>
     </row>
     <row r="3">
@@ -805,66 +851,64 @@
           <t>2025-10-13 09:30:00</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2025-10-13 09:30:00</t>
-        </is>
+      <c r="N3" t="n">
+        <v>2.25</v>
       </c>
       <c r="O3" t="n">
-        <v>2.25</v>
+        <v>5.37</v>
       </c>
       <c r="P3" t="n">
-        <v>5.37</v>
+        <v>1.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="R3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S3" t="n">
         <v>31381204</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>2025-10-13 04:05:00</t>
         </is>
       </c>
+      <c r="T3" t="n">
+        <v>3.57</v>
+      </c>
       <c r="U3" t="n">
-        <v>3.57</v>
+        <v>3.27</v>
       </c>
       <c r="V3" t="n">
+        <v>675913</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="X3" t="n">
         <v>3.27</v>
       </c>
-      <c r="W3" t="n">
-        <v>675913</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4.48</v>
-      </c>
       <c r="Y3" t="n">
+        <v>6934086</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="AA3" t="n">
         <v>3.27</v>
       </c>
-      <c r="Z3" t="n">
-        <v>6934086</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>5.32</v>
-      </c>
       <c r="AB3" t="n">
+        <v>31929442</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="AD3" t="n">
         <v>3.27</v>
       </c>
-      <c r="AC3" t="n">
-        <v>31929442</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.63</v>
-      </c>
       <c r="AE3" t="n">
-        <v>3.27</v>
+        <v>59914717</v>
       </c>
       <c r="AF3" t="n">
-        <v>59914717</v>
+        <v>4.83</v>
       </c>
       <c r="AG3" t="n">
         <v>5.63</v>
@@ -876,13 +920,31 @@
         <v>76120701</v>
       </c>
       <c r="AJ3" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>94636626</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="AO3" t="n">
         <v>6.55</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AP3" t="n">
         <v>3.27</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AQ3" t="n">
         <v>124792135</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="4">
@@ -933,66 +995,64 @@
           <t>2025-10-13 09:30:00</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-10-13 09:30:00</t>
-        </is>
+      <c r="N4" t="n">
+        <v>4.83</v>
       </c>
       <c r="O4" t="n">
-        <v>4.83</v>
+        <v>7.99</v>
       </c>
       <c r="P4" t="n">
-        <v>7.99</v>
+        <v>3.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.66</v>
+        <v>5.81</v>
       </c>
       <c r="R4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="S4" t="n">
         <v>37107935</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>2025-10-13 06:59:00</t>
         </is>
       </c>
+      <c r="T4" t="n">
+        <v>5.8</v>
+      </c>
       <c r="U4" t="n">
-        <v>5.8</v>
+        <v>5.63</v>
       </c>
       <c r="V4" t="n">
+        <v>117165</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X4" t="n">
         <v>5.63</v>
       </c>
-      <c r="W4" t="n">
-        <v>117165</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.2</v>
-      </c>
       <c r="Y4" t="n">
+        <v>1863693</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA4" t="n">
         <v>5.63</v>
       </c>
-      <c r="Z4" t="n">
-        <v>1863693</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AB4" t="n">
+        <v>18395871</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="AD4" t="n">
         <v>5.63</v>
       </c>
-      <c r="AC4" t="n">
-        <v>18395871</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.64</v>
-      </c>
       <c r="AE4" t="n">
-        <v>5.63</v>
+        <v>30146413</v>
       </c>
       <c r="AF4" t="n">
-        <v>30146413</v>
+        <v>6.88</v>
       </c>
       <c r="AG4" t="n">
         <v>8.24</v>
@@ -1004,13 +1064,31 @@
         <v>41206973</v>
       </c>
       <c r="AJ4" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>46775838</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AO4" t="n">
         <v>13.87</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AP4" t="n">
         <v>5.63</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AQ4" t="n">
         <v>99689492</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>9.52</v>
       </c>
     </row>
     <row r="5">
@@ -1061,66 +1139,64 @@
           <t>2025-10-13 12:29:00</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-10-13 12:29:00</t>
-        </is>
+      <c r="N5" t="n">
+        <v>6.48</v>
       </c>
       <c r="O5" t="n">
-        <v>6.48</v>
+        <v>14.76</v>
       </c>
       <c r="P5" t="n">
-        <v>14.76</v>
+        <v>6.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.08</v>
+        <v>9.82</v>
       </c>
       <c r="R5" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="S5" t="n">
         <v>11226212</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>2025-10-13 08:19:00</t>
         </is>
       </c>
+      <c r="T5" t="n">
+        <v>9.85</v>
+      </c>
       <c r="U5" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="V5" t="n">
+        <v>144570</v>
+      </c>
+      <c r="W5" t="n">
         <v>9.85</v>
       </c>
-      <c r="V5" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="W5" t="n">
-        <v>144570</v>
-      </c>
       <c r="X5" t="n">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>479363</v>
+      </c>
+      <c r="Z5" t="n">
         <v>9.85</v>
       </c>
-      <c r="Y5" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>479363</v>
-      </c>
       <c r="AA5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1249291</v>
+      </c>
+      <c r="AC5" t="n">
         <v>9.85</v>
       </c>
-      <c r="AB5" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1249291</v>
-      </c>
       <c r="AD5" t="n">
-        <v>9.85</v>
+        <v>7.44</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.44</v>
+        <v>1701648</v>
       </c>
       <c r="AF5" t="n">
-        <v>1701648</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="AG5" t="n">
         <v>9.85</v>
@@ -1132,13 +1208,31 @@
         <v>1856505</v>
       </c>
       <c r="AJ5" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="AK5" t="n">
         <v>9.85</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1948559</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AP5" t="n">
         <v>7.4</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AQ5" t="n">
         <v>2212286</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>7.94</v>
       </c>
     </row>
     <row r="6">
@@ -1189,66 +1283,64 @@
           <t>2025-10-13 15:57:00</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-10-13 15:57:00</t>
-        </is>
+      <c r="N6" t="n">
+        <v>3.19</v>
       </c>
       <c r="O6" t="n">
-        <v>3.19</v>
+        <v>10.42</v>
       </c>
       <c r="P6" t="n">
-        <v>10.42</v>
+        <v>3.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.1</v>
+        <v>5.01</v>
       </c>
       <c r="R6" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="S6" t="n">
         <v>19661849</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>2025-10-13 08:40:00</t>
         </is>
       </c>
+      <c r="T6" t="n">
+        <v>5.02</v>
+      </c>
       <c r="U6" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="V6" t="n">
+        <v>91679</v>
+      </c>
+      <c r="W6" t="n">
         <v>5.02</v>
       </c>
-      <c r="V6" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="W6" t="n">
-        <v>91679</v>
-      </c>
       <c r="X6" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>399613</v>
+      </c>
+      <c r="Z6" t="n">
         <v>5.02</v>
       </c>
-      <c r="Y6" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>399613</v>
-      </c>
       <c r="AA6" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1366790</v>
+      </c>
+      <c r="AC6" t="n">
         <v>5.02</v>
       </c>
-      <c r="AB6" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1366790</v>
-      </c>
       <c r="AD6" t="n">
-        <v>5.02</v>
+        <v>4.05</v>
       </c>
       <c r="AE6" t="n">
-        <v>4.05</v>
+        <v>2067193</v>
       </c>
       <c r="AF6" t="n">
-        <v>2067193</v>
+        <v>4.3</v>
       </c>
       <c r="AG6" t="n">
         <v>5.02</v>
@@ -1260,13 +1352,31 @@
         <v>2348780</v>
       </c>
       <c r="AJ6" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AK6" t="n">
         <v>5.2</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>4.05</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
+        <v>3705644</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>4723307</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>4.63</v>
       </c>
     </row>
     <row r="7">
@@ -1317,66 +1427,64 @@
           <t>2025-10-13 10:00:00</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-10-13 10:00:00</t>
-        </is>
+      <c r="N7" t="n">
+        <v>5.42</v>
       </c>
       <c r="O7" t="n">
-        <v>5.42</v>
+        <v>13.51</v>
       </c>
       <c r="P7" t="n">
-        <v>13.51</v>
+        <v>4.93</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.93</v>
+        <v>11.59</v>
       </c>
       <c r="R7" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="S7" t="n">
         <v>33016708</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>2025-10-13 07:21:00</t>
         </is>
       </c>
+      <c r="T7" t="n">
+        <v>13</v>
+      </c>
       <c r="U7" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1042564</v>
+      </c>
+      <c r="W7" t="n">
         <v>13</v>
       </c>
-      <c r="V7" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1042564</v>
-      </c>
       <c r="X7" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2162379</v>
+      </c>
+      <c r="Z7" t="n">
         <v>13</v>
       </c>
-      <c r="Y7" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2162379</v>
-      </c>
       <c r="AA7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>6414687</v>
+      </c>
+      <c r="AC7" t="n">
         <v>13</v>
       </c>
-      <c r="AB7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6414687</v>
-      </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.300000000000001</v>
+        <v>11724079</v>
       </c>
       <c r="AF7" t="n">
-        <v>11724079</v>
+        <v>11.26</v>
       </c>
       <c r="AG7" t="n">
         <v>15.81</v>
@@ -1388,13 +1496,31 @@
         <v>20471624</v>
       </c>
       <c r="AJ7" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>26673328</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="AO7" t="n">
         <v>26.33</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AP7" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AQ7" t="n">
         <v>49781476</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>19.98</v>
       </c>
     </row>
   </sheetData>
